--- a/Excels/Localization/English.xlsx
+++ b/Excels/Localization/English.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_505666FCB3FCE2A3938EC8A9060E310B0E38B026" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{66C0130D-876D-4C9F-85C5-E1A021438F9E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE42C16-128B-4A8F-9CAA-551DC333445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="1185" windowWidth="19125" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,159 +30,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Game.Name</t>
-  </si>
-  <si>
-    <t>Game.Description</t>
-  </si>
-  <si>
-    <t>Game.Website</t>
-  </si>
-  <si>
-    <t>http://GameFramework.cn/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game.Summary</t>
-  </si>
-  <si>
-    <t>Game.Introduction</t>
-  </si>
-  <si>
-    <t>Menu.StartButton</t>
-  </si>
-  <si>
-    <t>Menu.SettingButton</t>
-  </si>
-  <si>
-    <t>Menu.AboutButton</t>
-  </si>
-  <si>
-    <t>Menu.QuitButton</t>
-  </si>
-  <si>
-    <t>Dialog.ConfirmButton</t>
-  </si>
-  <si>
-    <t>Dialog.CancelButton</t>
-  </si>
-  <si>
-    <t>Dialog.OtherButton</t>
-  </si>
-  <si>
-    <t>ForceUpdate.Title</t>
-  </si>
-  <si>
-    <t>ForceUpdate.Message</t>
-  </si>
-  <si>
-    <t>ForceUpdate.UpdateButton</t>
-  </si>
-  <si>
-    <t>ForceUpdate.QuitButton</t>
-  </si>
-  <si>
-    <t>AskQuitGame.Title</t>
-  </si>
-  <si>
-    <t>AskQuitGame.Message</t>
-  </si>
-  <si>
-    <t>Setting.Title</t>
-  </si>
-  <si>
-    <t>Setting.Music</t>
-  </si>
-  <si>
-    <t>Setting.Sound</t>
-  </si>
-  <si>
-    <t>Setting.UISound</t>
-  </si>
-  <si>
-    <t>Setting.Language</t>
-  </si>
-  <si>
-    <t>Setting.LanguageTips</t>
-  </si>
-  <si>
     <t>#策划备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>STAR FORCE</t>
-  </si>
-  <si>
-    <t>Game Framework Demo Program</t>
-  </si>
-  <si>
-    <t>This project is a demo game made with Game Framework. It's intended to demonstrate how this game framework should be used for developers' reference.</t>
-  </si>
-  <si>
-    <t>Game Framework is literally a game framework, based on Unity 5.3+ game engine. It encapsulates commonly used game modules during development, and, to a large degree, standardises the process, enhances the development speed and ensures the product quality.</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>SETTINGS</t>
-  </si>
-  <si>
-    <t>ABOUT</t>
-  </si>
-  <si>
-    <t>QUIT</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CANCEL</t>
+    <t>Game.Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OTHER</t>
+    <t>English</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OUT OF DATE</t>
-  </si>
-  <si>
-    <t>The current game version is out-of-date. Would you like to go for update now?</t>
-  </si>
-  <si>
-    <t>UPDATE</t>
-  </si>
-  <si>
-    <t>CONFIRM TO QUIT</t>
-  </si>
-  <si>
-    <t>Are you sure to quit the game?</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Sound FX</t>
-  </si>
-  <si>
-    <t>UI Sound FX</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Language change demands restarting.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,14 +59,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,17 +79,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,210 +385,23 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>